--- a/inst/Data/ELISA/ELISA.xlsx
+++ b/inst/Data/ELISA/ELISA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simonepernice/Desktop/GIT/R_packages_project/InteGreat/inst/Data/ELISA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5CC59D-71BF-6047-89D7-C9FB78F6917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B34D98-E696-1B49-B0D8-10F9FA7CE590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Analisi" sheetId="2" r:id="rId3"/>
     <sheet name="Schema piastra" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -437,7 +437,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -495,6 +495,12 @@
         <bgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD97332"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -525,7 +531,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -545,6 +551,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -553,6 +560,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFD97332"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -4007,16 +4019,16 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="9">
+      <c r="A1" s="19">
         <v>2.8342999999999998</v>
       </c>
-      <c r="B1" s="9">
+      <c r="B1" s="19">
         <v>2.7650999999999999</v>
       </c>
       <c r="C1" s="8">
@@ -4051,10 +4063,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="9">
+      <c r="A2" s="19">
         <v>1.3327</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="19">
         <v>1.2992999999999999</v>
       </c>
       <c r="C2" s="8">
@@ -4089,10 +4101,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="9">
+      <c r="A3" s="19">
         <v>0.49890000000000001</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="19">
         <v>0.48180000000000001</v>
       </c>
       <c r="C3" s="8">
@@ -4127,10 +4139,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="9">
+      <c r="A4" s="19">
         <v>0.2306</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="19">
         <v>0.2271</v>
       </c>
       <c r="C4" s="8">
@@ -4165,10 +4177,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="9">
+      <c r="A5" s="19">
         <v>0.1242</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="19">
         <v>0.13020000000000001</v>
       </c>
       <c r="C5" s="8">
@@ -4203,10 +4215,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="9">
+      <c r="A6" s="19">
         <v>9.9599999999999994E-2</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="19">
         <v>0.1024</v>
       </c>
       <c r="C6" s="8">
@@ -4241,10 +4253,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="9">
+      <c r="A7" s="19">
         <v>7.8700000000000006E-2</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="19">
         <v>8.0100000000000005E-2</v>
       </c>
       <c r="C7" s="8">
@@ -4279,10 +4291,10 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="9">
+      <c r="A8" s="19">
         <v>7.3599999999999999E-2</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="19">
         <v>7.2700000000000001E-2</v>
       </c>
       <c r="C8" s="8">
